--- a/biology/Botanique/Trientale/Trientale.xlsx
+++ b/biology/Botanique/Trientale/Trientale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trientalis
 Trientalis (les trientales) est un genre de plantes à fleurs dicotylédones de la famille des Primulaceae.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre fait partie de l'ordre des Primulales et de la famille des Primulacées, selon la classification classique.
 La classification phylogénétique (APG II, 2003) les place plutôt dans l'ordre des Ericales et dans la famille des Myrsinacées.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces de petite taille, à feuilles verticillées et à tige simple. Les fleurs sont terminales, solitaires ou peu nombreuses. Les étamines sont insérées sur la base de la corolle en forme de roue. Le fruit est une capsule légèrement charnue.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre compte quatre espèces, dont trois sont originaires d'Amérique et une de l'Eurasie.
 </t>
@@ -606,7 +624,9 @@
           <t>Espèces du genre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Trientalis arctica Hook. (Syn. Trientalis europaea subsp. arctica (Fisch. ex Hook.) Hultén) - Trientale arctique, Ouest de l'Amérique du Nord
 Trientalis borealis Raf. - Trientale boréale, Amérique du Nord
@@ -646,7 +666,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La trientale Trientalis europaea est le symbole de la réserve naturelle des Hautes Fagnes en Belgique.</t>
         </is>
